--- a/grupos/4ARHV - Estadisticos 20202.xlsx
+++ b/grupos/4ARHV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="160">
   <si>
     <t>Materia</t>
   </si>
@@ -254,244 +254,244 @@
     <t>MAZAHUA</t>
   </si>
   <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
     <t>MENDEZ</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>AQUINO</t>
+  </si>
+  <si>
+    <t>TZITZIHUA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>VERGEL</t>
+  </si>
+  <si>
+    <t>EVELYN AISHA</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>AMYRA NAHOMY</t>
+  </si>
+  <si>
+    <t>LUZ DEL CARMEN</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>HILARIO</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>LUIS HUGO</t>
+  </si>
+  <si>
+    <t>DIANA LAURA</t>
+  </si>
+  <si>
+    <t>NOE</t>
+  </si>
+  <si>
+    <t>ITZEL ISABEL</t>
+  </si>
+  <si>
+    <t>RAMIRO</t>
+  </si>
+  <si>
+    <t>PAULINA</t>
+  </si>
+  <si>
+    <t>BRISEÑO</t>
+  </si>
+  <si>
+    <t>DEL CARMEN</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DONJUAN</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>QUIAHUA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
   </si>
   <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>ZARATE</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>SUSUNAGA</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>MELCHOR</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CORTES</t>
   </si>
   <si>
     <t>SANTOS</t>
   </si>
   <si>
-    <t>AQUINO</t>
-  </si>
-  <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>CALIHUA</t>
+    <t>VOTTE</t>
   </si>
   <si>
     <t>HERRERA</t>
   </si>
   <si>
-    <t>VERGEL</t>
-  </si>
-  <si>
-    <t>EVELYN AISHA</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>AMYRA NAHOMY</t>
-  </si>
-  <si>
-    <t>LUZ DEL CARMEN</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>HILARIO</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>LUCERO</t>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>AURORA</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>NAOMI</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>OFELIA</t>
+  </si>
+  <si>
+    <t>ZURI SADAY</t>
+  </si>
+  <si>
+    <t>RAUL ANTONIO</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>DARIANA MONSERRAT</t>
+  </si>
+  <si>
+    <t>MARIAM ABRIL</t>
   </si>
   <si>
     <t>FATIMA</t>
   </si>
   <si>
-    <t>LUIS HUGO</t>
-  </si>
-  <si>
-    <t>DIANA LAURA</t>
-  </si>
-  <si>
-    <t>NOE</t>
-  </si>
-  <si>
-    <t>ITZEL ISABEL</t>
-  </si>
-  <si>
-    <t>RAMIRO</t>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>ASTRID</t>
+  </si>
+  <si>
+    <t>MERIELING YAMILETH</t>
+  </si>
+  <si>
+    <t>SAIRA YAMILET</t>
   </si>
   <si>
     <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>PAULINA</t>
-  </si>
-  <si>
-    <t>BRISEÑO</t>
-  </si>
-  <si>
-    <t>DEL CARMEN</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DONJUAN</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>SUSUNAGA</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>MELCHOR</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>VOTTE</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>AURORA</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>JOEL</t>
-  </si>
-  <si>
-    <t>NAOMI</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>OFELIA</t>
-  </si>
-  <si>
-    <t>ZURI SADAY</t>
-  </si>
-  <si>
-    <t>RAUL ANTONIO</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL</t>
-  </si>
-  <si>
-    <t>PERLA</t>
-  </si>
-  <si>
-    <t>DARIANA MONSERRAT</t>
-  </si>
-  <si>
-    <t>MARIAM ABRIL</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>ASTRID</t>
-  </si>
-  <si>
-    <t>MERIELING YAMILETH</t>
-  </si>
-  <si>
-    <t>SAIRA YAMILET</t>
   </si>
   <si>
     <t>JENNIFER</t>
@@ -2221,7 +2221,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -2239,7 +2239,7 @@
         <v>6</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -2257,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P20">
         <v>8</v>
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V20">
         <v>6</v>
@@ -2991,7 +2991,7 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3009,7 +3009,7 @@
         <v>5</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -3027,7 +3027,7 @@
         <v>5</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P30">
         <v>5</v>
@@ -3045,7 +3045,7 @@
         <v>6</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V30">
         <v>5</v>
@@ -3761,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J40">
         <v>5</v>
@@ -3797,7 +3797,7 @@
         <v>7</v>
       </c>
       <c r="O40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P40">
         <v>5</v>
@@ -3815,7 +3815,7 @@
         <v>6</v>
       </c>
       <c r="U40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -4209,25 +4209,25 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>89.73999999999999</v>
+        <v>97.44</v>
       </c>
       <c r="G7">
         <v>2.56</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.69</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +4237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4275,10 +4275,10 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -4295,10 +4295,10 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4315,10 +4315,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -4335,10 +4335,10 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -4355,10 +4355,10 @@
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -4375,10 +4375,10 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -4395,10 +4395,10 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -4415,10 +4415,10 @@
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -4429,36 +4429,36 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920097</v>
+        <v>19330051920374</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920374</v>
+        <v>19330051920382</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -4469,16 +4469,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920382</v>
+        <v>19330051920386</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -4489,96 +4489,96 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920383</v>
+        <v>19330051920386</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920386</v>
+        <v>19330051920419</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920386</v>
+        <v>19330051920419</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920419</v>
+        <v>19330051920391</v>
       </c>
       <c r="B16" t="s">
         <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920419</v>
+        <v>19330051920393</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -4589,36 +4589,36 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920391</v>
+        <v>19330051920393</v>
       </c>
       <c r="B18" t="s">
         <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920393</v>
+        <v>19330051920392</v>
       </c>
       <c r="B19" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -4629,16 +4629,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920393</v>
+        <v>19330051920392</v>
       </c>
       <c r="B20" t="s">
         <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -4649,81 +4649,21 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920392</v>
+        <v>19330051920399</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>19330051920392</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>19330051920396</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>19330051920399</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4769,10 +4709,10 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -4780,13 +4720,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920097</v>
+        <v>19330051920386</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -4797,16 +4737,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920386</v>
+        <v>19330051920419</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4814,16 +4754,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920419</v>
+        <v>19330051920393</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -4831,16 +4771,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920393</v>
+        <v>19330051920392</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4848,33 +4788,33 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920392</v>
+        <v>19330051920358</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920358</v>
+        <v>19330051920360</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4882,16 +4822,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920360</v>
+        <v>19330051920361</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4899,16 +4839,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920361</v>
+        <v>19330051920435</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4916,16 +4856,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920435</v>
+        <v>19330051920427</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4933,16 +4873,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920427</v>
+        <v>18330051920097</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4956,10 +4896,10 @@
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4973,10 +4913,10 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4984,16 +4924,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920383</v>
+        <v>19330051920391</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5001,16 +4941,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920391</v>
+        <v>19330051920399</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5018,47 +4958,47 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920396</v>
+        <v>19330051920359</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920399</v>
+        <v>19330051920456</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920359</v>
+        <v>19330051920362</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
         <v>140</v>
@@ -5069,13 +5009,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920456</v>
+        <v>19330051920426</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
         <v>141</v>
@@ -5086,13 +5026,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920362</v>
+        <v>19330051920366</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
         <v>142</v>
@@ -5103,16 +5043,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920426</v>
+        <v>19330051920365</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5120,16 +5060,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920366</v>
+        <v>19330051920368</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5137,13 +5077,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920365</v>
+        <v>19330051920367</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
         <v>144</v>
@@ -5154,13 +5094,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920368</v>
+        <v>19330051920371</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
@@ -5171,16 +5111,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920367</v>
+        <v>19330051920372</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5188,16 +5128,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920371</v>
+        <v>19330051920373</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5205,16 +5145,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920372</v>
+        <v>19330051920375</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5222,13 +5162,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920373</v>
+        <v>19330051920376</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
         <v>148</v>
@@ -5239,13 +5179,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920375</v>
+        <v>19330051920377</v>
       </c>
       <c r="B30" t="s">
         <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
         <v>149</v>
@@ -5256,13 +5196,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920376</v>
+        <v>19330051920378</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
         <v>150</v>
@@ -5273,13 +5213,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920377</v>
+        <v>19330051920381</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
         <v>151</v>
@@ -5290,13 +5230,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920378</v>
+        <v>19330051920383</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
         <v>152</v>
@@ -5307,13 +5247,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920381</v>
+        <v>19330051920389</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
         <v>153</v>
@@ -5324,13 +5264,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920389</v>
+        <v>19330051920436</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -5341,13 +5281,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920436</v>
+        <v>19330051920394</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>155</v>
@@ -5358,13 +5298,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920394</v>
+        <v>19330051920434</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
         <v>156</v>
@@ -5375,13 +5315,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920434</v>
+        <v>19330051920396</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
         <v>157</v>
@@ -5395,10 +5335,10 @@
         <v>19330051920369</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
         <v>158</v>
@@ -5412,10 +5352,10 @@
         <v>19330051920398</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
         <v>159</v>
@@ -5431,7 +5371,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5472,10 +5412,10 @@
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -5495,10 +5435,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5515,13 +5455,13 @@
         <v>19330051920367</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -5538,13 +5478,13 @@
         <v>19330051920367</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -5558,62 +5498,62 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920427</v>
+        <v>19330051920383</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920374</v>
+        <v>19330051920383</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920382</v>
+        <v>19330051920427</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -5627,62 +5567,62 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920436</v>
+        <v>19330051920374</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920369</v>
+        <v>19330051920382</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920398</v>
+        <v>19330051920436</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -5691,6 +5631,52 @@
         <v>60</v>
       </c>
       <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920369</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920398</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
     </row>

--- a/grupos/4ARHV - Estadisticos 20202.xlsx
+++ b/grupos/4ARHV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="160">
   <si>
     <t>Materia</t>
   </si>
@@ -227,214 +227,214 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>BUSTOS</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>ESPARZA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>AQUINO</t>
+  </si>
+  <si>
+    <t>TZITZIHUA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>VERGEL</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>AMYRA NAHOMY</t>
+  </si>
+  <si>
+    <t>LUZ DEL CARMEN</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>HILARIO</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>LUIS HUGO</t>
+  </si>
+  <si>
+    <t>DIANA LAURA</t>
+  </si>
+  <si>
+    <t>NOE</t>
+  </si>
+  <si>
+    <t>ITZEL ISABEL</t>
+  </si>
+  <si>
+    <t>RAMIRO</t>
+  </si>
+  <si>
+    <t>PAULINA</t>
+  </si>
+  <si>
     <t>APALE</t>
   </si>
   <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>BRETON</t>
-  </si>
-  <si>
-    <t>BUSTOS</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>ESPARZA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ZARATE</t>
+    <t>BRISEÑO</t>
+  </si>
+  <si>
+    <t>DEL CARMEN</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DONJUAN</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>QUIAHUA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>VERA</t>
   </si>
   <si>
     <t>COLOHUA</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>AQUINO</t>
-  </si>
-  <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>VERGEL</t>
+    <t>SUSUNAGA</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>MELCHOR</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>VOTTE</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>AURORA</t>
   </si>
   <si>
     <t>EVELYN AISHA</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>AMYRA NAHOMY</t>
-  </si>
-  <si>
-    <t>LUZ DEL CARMEN</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>HILARIO</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>LUCERO</t>
-  </si>
-  <si>
-    <t>LUIS HUGO</t>
-  </si>
-  <si>
-    <t>DIANA LAURA</t>
-  </si>
-  <si>
-    <t>NOE</t>
-  </si>
-  <si>
-    <t>ITZEL ISABEL</t>
-  </si>
-  <si>
-    <t>RAMIRO</t>
-  </si>
-  <si>
-    <t>PAULINA</t>
-  </si>
-  <si>
-    <t>BRISEÑO</t>
-  </si>
-  <si>
-    <t>DEL CARMEN</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DONJUAN</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>SUSUNAGA</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>MELCHOR</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>VOTTE</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>AURORA</t>
   </si>
   <si>
     <t>VANESSA</t>
@@ -1078,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -1096,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>5</v>
@@ -1114,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1191,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="S6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T6">
         <v>10</v>
@@ -1345,7 +1345,7 @@
         <v>6</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <v>9</v>
@@ -1653,7 +1653,7 @@
         <v>7</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T12">
         <v>10</v>
@@ -1730,7 +1730,7 @@
         <v>-1</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T13">
         <v>10</v>
@@ -1748,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="Y13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1807,7 +1807,7 @@
         <v>6</v>
       </c>
       <c r="S14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T14">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T15">
         <v>8</v>
@@ -1961,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="S16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T16">
         <v>8</v>
@@ -2115,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T18">
         <v>10</v>
@@ -2133,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="Y18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2192,7 +2192,7 @@
         <v>-1</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>6</v>
@@ -2210,7 +2210,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2346,7 +2346,7 @@
         <v>6</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T21">
         <v>10</v>
@@ -2423,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="S22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T22">
         <v>10</v>
@@ -2654,7 +2654,7 @@
         <v>8</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T25">
         <v>10</v>
@@ -2731,7 +2731,7 @@
         <v>-1</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T26">
         <v>8</v>
@@ -2808,7 +2808,7 @@
         <v>6</v>
       </c>
       <c r="S27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T27">
         <v>8</v>
@@ -2962,7 +2962,7 @@
         <v>-1</v>
       </c>
       <c r="S29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T29">
         <v>8</v>
@@ -3347,7 +3347,7 @@
         <v>6</v>
       </c>
       <c r="S34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T34">
         <v>6</v>
@@ -3424,7 +3424,7 @@
         <v>-1</v>
       </c>
       <c r="S35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T35">
         <v>6</v>
@@ -3655,7 +3655,7 @@
         <v>-1</v>
       </c>
       <c r="S38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T38">
         <v>8</v>
@@ -3809,7 +3809,7 @@
         <v>7</v>
       </c>
       <c r="S40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T40">
         <v>6</v>
@@ -3886,7 +3886,7 @@
         <v>7</v>
       </c>
       <c r="S41">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T41">
         <v>6</v>
@@ -3963,7 +3963,7 @@
         <v>-1</v>
       </c>
       <c r="S42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T42">
         <v>6</v>
@@ -4180,22 +4180,22 @@
         <v>32</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>82.05</v>
       </c>
       <c r="G6">
-        <v>5.13</v>
+        <v>7.69</v>
       </c>
       <c r="H6">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>17.95</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4237,7 +4237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4269,16 +4269,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920358</v>
+        <v>19330051920356</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -4292,13 +4292,13 @@
         <v>19330051920356</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4309,76 +4309,76 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920356</v>
+        <v>19330051920360</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920360</v>
+        <v>19330051920361</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920361</v>
+        <v>19330051920435</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920435</v>
+        <v>19330051920427</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -4389,16 +4389,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920427</v>
+        <v>18330051920097</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -4409,16 +4409,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920097</v>
+        <v>19330051920374</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -4429,16 +4429,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920374</v>
+        <v>19330051920382</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -4449,16 +4449,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920382</v>
+        <v>19330051920386</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -4472,33 +4472,33 @@
         <v>19330051920386</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920386</v>
+        <v>19330051920419</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -4512,33 +4512,33 @@
         <v>19330051920419</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920419</v>
+        <v>19330051920391</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -4549,22 +4549,22 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920391</v>
+        <v>19330051920393</v>
       </c>
       <c r="B16" t="s">
         <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4572,13 +4572,13 @@
         <v>19330051920393</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -4589,16 +4589,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920393</v>
+        <v>19330051920392</v>
       </c>
       <c r="B18" t="s">
         <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -4612,13 +4612,13 @@
         <v>19330051920392</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -4629,41 +4629,21 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920392</v>
+        <v>19330051920399</v>
       </c>
       <c r="B20" t="s">
         <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>19330051920399</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4706,13 +4686,13 @@
         <v>19330051920356</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -4723,13 +4703,13 @@
         <v>19330051920386</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4740,13 +4720,13 @@
         <v>19330051920419</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4757,13 +4737,13 @@
         <v>19330051920393</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -4774,13 +4754,13 @@
         <v>19330051920392</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4788,16 +4768,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920358</v>
+        <v>19330051920360</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4805,16 +4785,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920360</v>
+        <v>19330051920361</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4822,16 +4802,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920361</v>
+        <v>19330051920435</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4839,16 +4819,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920435</v>
+        <v>19330051920427</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4856,16 +4836,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920427</v>
+        <v>18330051920097</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4873,16 +4853,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920097</v>
+        <v>19330051920374</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4890,16 +4870,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920374</v>
+        <v>19330051920382</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4907,10 +4887,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920382</v>
+        <v>19330051920391</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>91</v>
@@ -4924,13 +4904,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920391</v>
+        <v>19330051920399</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
         <v>108</v>
@@ -4941,30 +4921,30 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920399</v>
+        <v>19330051920359</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920359</v>
+        <v>19330051920358</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
         <v>138</v>
@@ -4978,10 +4958,10 @@
         <v>19330051920456</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
         <v>139</v>
@@ -4995,10 +4975,10 @@
         <v>19330051920362</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>140</v>
@@ -5012,10 +4992,10 @@
         <v>19330051920426</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
         <v>141</v>
@@ -5029,10 +5009,10 @@
         <v>19330051920366</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
         <v>142</v>
@@ -5046,10 +5026,10 @@
         <v>19330051920365</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
         <v>142</v>
@@ -5063,10 +5043,10 @@
         <v>19330051920368</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
         <v>143</v>
@@ -5080,10 +5060,10 @@
         <v>19330051920367</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
         <v>144</v>
@@ -5097,10 +5077,10 @@
         <v>19330051920371</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
@@ -5114,13 +5094,13 @@
         <v>19330051920372</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5131,10 +5111,10 @@
         <v>19330051920373</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
         <v>146</v>
@@ -5148,10 +5128,10 @@
         <v>19330051920375</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
         <v>147</v>
@@ -5165,10 +5145,10 @@
         <v>19330051920376</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
         <v>148</v>
@@ -5182,10 +5162,10 @@
         <v>19330051920377</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
         <v>149</v>
@@ -5199,10 +5179,10 @@
         <v>19330051920378</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
         <v>150</v>
@@ -5216,10 +5196,10 @@
         <v>19330051920381</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
         <v>151</v>
@@ -5233,10 +5213,10 @@
         <v>19330051920383</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
         <v>152</v>
@@ -5250,10 +5230,10 @@
         <v>19330051920389</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
         <v>153</v>
@@ -5267,10 +5247,10 @@
         <v>19330051920436</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -5284,10 +5264,10 @@
         <v>19330051920394</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
         <v>155</v>
@@ -5301,10 +5281,10 @@
         <v>19330051920434</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
         <v>156</v>
@@ -5318,10 +5298,10 @@
         <v>19330051920396</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
         <v>157</v>
@@ -5335,10 +5315,10 @@
         <v>19330051920369</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
         <v>158</v>
@@ -5352,10 +5332,10 @@
         <v>19330051920398</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
         <v>159</v>
@@ -5409,13 +5389,13 @@
         <v>19330051920360</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -5432,13 +5412,13 @@
         <v>19330051920360</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5455,10 +5435,10 @@
         <v>19330051920367</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
         <v>144</v>
@@ -5478,10 +5458,10 @@
         <v>19330051920367</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
         <v>144</v>
@@ -5501,10 +5481,10 @@
         <v>19330051920383</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
         <v>152</v>
@@ -5524,10 +5504,10 @@
         <v>19330051920383</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>152</v>
@@ -5547,13 +5527,13 @@
         <v>19330051920427</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -5570,13 +5550,13 @@
         <v>19330051920374</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -5593,13 +5573,13 @@
         <v>19330051920382</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5616,10 +5596,10 @@
         <v>19330051920436</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
         <v>154</v>
@@ -5639,10 +5619,10 @@
         <v>19330051920369</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
         <v>158</v>
@@ -5662,10 +5642,10 @@
         <v>19330051920398</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>159</v>

--- a/grupos/4ARHV - Estadisticos 20202.xlsx
+++ b/grupos/4ARHV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="160">
   <si>
     <t>Materia</t>
   </si>
@@ -3465,7 +3465,7 @@
         <v>-1</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -3483,7 +3483,7 @@
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N36">
         <v>5</v>
@@ -3501,7 +3501,7 @@
         <v>-1</v>
       </c>
       <c r="S36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T36">
         <v>5</v>
@@ -3519,7 +3519,7 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3590,7 +3590,7 @@
         <v>5</v>
       </c>
       <c r="W37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -4177,25 +4177,25 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>82.05</v>
+        <v>84.62</v>
       </c>
       <c r="G6">
         <v>7.69</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>15.38</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4237,7 +4237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4601,49 +4601,29 @@
         <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920392</v>
+        <v>19330051920399</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19330051920399</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4751,33 +4731,33 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920392</v>
+        <v>19330051920360</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920360</v>
+        <v>19330051920361</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4785,16 +4765,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920361</v>
+        <v>19330051920435</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4802,16 +4782,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920435</v>
+        <v>19330051920427</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4819,16 +4799,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920427</v>
+        <v>18330051920097</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4836,16 +4816,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920097</v>
+        <v>19330051920374</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4853,16 +4833,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920374</v>
+        <v>19330051920382</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4870,16 +4850,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920382</v>
+        <v>19330051920391</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4887,16 +4867,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920391</v>
+        <v>19330051920392</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E14">
         <v>1</v>

--- a/grupos/4ARHV - Estadisticos 20202.xlsx
+++ b/grupos/4ARHV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="160">
   <si>
     <t>Materia</t>
   </si>
@@ -200,21 +200,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
-    <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
     <t>Camacho Juárez Sergio Eduardo</t>
   </si>
   <si>
+    <t>Muñoz Rivadeneyra Salvador</t>
+  </si>
+  <si>
     <t>González Nuñez Veronica</t>
   </si>
   <si>
-    <t>Muñoz Rivadeneyra Salvador</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -227,33 +227,75 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>APALE</t>
+  </si>
+  <si>
     <t>ACEVEDO</t>
   </si>
   <si>
     <t>BRETON</t>
   </si>
   <si>
+    <t>BRISEÑO</t>
+  </si>
+  <si>
     <t>BUSTOS</t>
   </si>
   <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>DEL CARMEN</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
     <t>CARRILLO</t>
   </si>
   <si>
+    <t>DONJUAN</t>
+  </si>
+  <si>
     <t>ESPARZA</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>MAZAHUA</t>
   </si>
   <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
+    <t>QUIAHUA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
     <t>RIOS</t>
   </si>
   <si>
@@ -263,31 +305,70 @@
     <t>RODRIGUEZ</t>
   </si>
   <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
     <t>ZARATE</t>
   </si>
   <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
     <t>VICENTE</t>
   </si>
   <si>
+    <t>SUSUNAGA</t>
+  </si>
+  <si>
     <t>ORTIZ</t>
   </si>
   <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>CID</t>
   </si>
   <si>
+    <t>MELCHOR</t>
+  </si>
+  <si>
     <t>FERNANDEZ</t>
   </si>
   <si>
-    <t>MENDEZ</t>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
   </si>
   <si>
     <t>AGUILA</t>
   </si>
   <si>
-    <t>IXMATLAHUA</t>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
   </si>
   <si>
     <t>AQUINO</t>
@@ -296,45 +377,102 @@
     <t>TZITZIHUA</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>CALIHUA</t>
+    <t>VOTTE</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
   </si>
   <si>
     <t>VERGEL</t>
   </si>
   <si>
+    <t>AURORA</t>
+  </si>
+  <si>
+    <t>EVELYN AISHA</t>
+  </si>
+  <si>
     <t>OMAR</t>
   </si>
   <si>
     <t>AMYRA NAHOMY</t>
   </si>
   <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
     <t>LUZ DEL CARMEN</t>
   </si>
   <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>NAOMI</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>OFELIA</t>
+  </si>
+  <si>
+    <t>ZURI SADAY</t>
+  </si>
+  <si>
     <t>ARELY</t>
   </si>
   <si>
+    <t>RAUL ANTONIO</t>
+  </si>
+  <si>
     <t>VALENTIN</t>
   </si>
   <si>
     <t>HILARIO</t>
   </si>
   <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
     <t>JESUS</t>
   </si>
   <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>DARIANA MONSERRAT</t>
+  </si>
+  <si>
+    <t>MARIAM ABRIL</t>
+  </si>
+  <si>
     <t>LUCERO</t>
   </si>
   <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
     <t>LUIS HUGO</t>
   </si>
   <si>
     <t>DIANA LAURA</t>
   </si>
   <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>ASTRID</t>
+  </si>
+  <si>
     <t>NOE</t>
   </si>
   <si>
@@ -344,160 +482,22 @@
     <t>RAMIRO</t>
   </si>
   <si>
+    <t>MERIELING YAMILETH</t>
+  </si>
+  <si>
+    <t>SAIRA YAMILET</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
     <t>PAULINA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>BRISEÑO</t>
-  </si>
-  <si>
-    <t>DEL CARMEN</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DONJUAN</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>SUSUNAGA</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>MELCHOR</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>VOTTE</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>AURORA</t>
-  </si>
-  <si>
-    <t>EVELYN AISHA</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>JOEL</t>
-  </si>
-  <si>
-    <t>NAOMI</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>OFELIA</t>
-  </si>
-  <si>
-    <t>ZURI SADAY</t>
-  </si>
-  <si>
-    <t>RAUL ANTONIO</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL</t>
-  </si>
-  <si>
-    <t>PERLA</t>
-  </si>
-  <si>
-    <t>DARIANA MONSERRAT</t>
-  </si>
-  <si>
-    <t>MARIAM ABRIL</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>ASTRID</t>
-  </si>
-  <si>
-    <t>MERIELING YAMILETH</t>
-  </si>
-  <si>
-    <t>SAIRA YAMILET</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>JENNIFER</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -1016,10 +1016,10 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>5</v>
@@ -1034,10 +1034,10 @@
         <v>5</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>5</v>
@@ -1052,10 +1052,10 @@
         <v>5</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>6</v>
@@ -1283,10 +1283,10 @@
         <v>6</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="S9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -1440,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1496,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S10">
         <v>10</v>
@@ -1514,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="X10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y10">
         <v>9</v>
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1555,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>7</v>
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S11">
         <v>9</v>
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y11">
         <v>8</v>
@@ -1727,7 +1727,7 @@
         <v>10</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S13">
         <v>9</v>
@@ -1745,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="X13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y13">
         <v>7</v>
@@ -2153,7 +2153,7 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -2171,7 +2171,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>8</v>
@@ -2189,7 +2189,7 @@
         <v>5</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S19">
         <v>5</v>
@@ -2207,7 +2207,7 @@
         <v>6</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y19">
         <v>7</v>
@@ -2230,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -2248,7 +2248,7 @@
         <v>5</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>6</v>
@@ -2266,7 +2266,7 @@
         <v>8</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S20">
         <v>8</v>
@@ -2284,7 +2284,7 @@
         <v>6</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y20">
         <v>7</v>
@@ -2461,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -2479,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>9</v>
@@ -2497,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S23">
         <v>10</v>
@@ -2515,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y23">
         <v>9</v>
@@ -2728,7 +2728,7 @@
         <v>9</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S26">
         <v>9</v>
@@ -2746,7 +2746,7 @@
         <v>9</v>
       </c>
       <c r="X26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y26">
         <v>9</v>
@@ -2923,7 +2923,7 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>8</v>
@@ -2941,7 +2941,7 @@
         <v>7</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M29">
         <v>9</v>
@@ -2959,7 +2959,7 @@
         <v>10</v>
       </c>
       <c r="R29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S29">
         <v>10</v>
@@ -2977,7 +2977,7 @@
         <v>9</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y29">
         <v>9</v>
@@ -3039,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <v>6</v>
@@ -3077,10 +3077,10 @@
         <v>6</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -3095,10 +3095,10 @@
         <v>6</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>6</v>
@@ -3113,10 +3113,10 @@
         <v>6</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T31">
         <v>6</v>
@@ -3131,10 +3131,10 @@
         <v>6</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3154,10 +3154,10 @@
         <v>6</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -3172,10 +3172,10 @@
         <v>6</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>6</v>
@@ -3190,10 +3190,10 @@
         <v>6</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T32">
         <v>6</v>
@@ -3208,10 +3208,10 @@
         <v>6</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3385,7 +3385,7 @@
         <v>6</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -3403,7 +3403,7 @@
         <v>5</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>8</v>
@@ -3421,7 +3421,7 @@
         <v>8</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S35">
         <v>8</v>
@@ -3439,7 +3439,7 @@
         <v>6</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y35">
         <v>7</v>
@@ -3462,7 +3462,7 @@
         <v>5</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -3480,7 +3480,7 @@
         <v>5</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M36">
         <v>6</v>
@@ -3498,7 +3498,7 @@
         <v>5</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S36">
         <v>6</v>
@@ -3516,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y36">
         <v>6</v>
@@ -3539,7 +3539,7 @@
         <v>6</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>6</v>
@@ -3557,10 +3557,10 @@
         <v>6</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N37">
         <v>6</v>
@@ -3575,10 +3575,10 @@
         <v>6</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T37">
         <v>6</v>
@@ -3593,7 +3593,7 @@
         <v>6</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y37">
         <v>6</v>
@@ -3652,7 +3652,7 @@
         <v>10</v>
       </c>
       <c r="R38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S38">
         <v>9</v>
@@ -3670,7 +3670,7 @@
         <v>8</v>
       </c>
       <c r="X38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y38">
         <v>9</v>
@@ -3924,7 +3924,7 @@
         <v>6</v>
       </c>
       <c r="F42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -3942,7 +3942,7 @@
         <v>6</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M42">
         <v>7</v>
@@ -3960,7 +3960,7 @@
         <v>7</v>
       </c>
       <c r="R42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S42">
         <v>8</v>
@@ -3978,7 +3978,7 @@
         <v>6</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y42">
         <v>7</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -4049,19 +4049,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>58.97</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G2">
-        <v>41.03</v>
+        <v>28.21</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -4081,25 +4081,25 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>64.09999999999999</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G3">
-        <v>2.56</v>
+        <v>28.21</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4113,19 +4113,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>76.92</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="G4">
-        <v>23.08</v>
+        <v>12.82</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4145,19 +4145,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>76.92</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="G5">
-        <v>23.08</v>
+        <v>12.82</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -4177,30 +4177,30 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>84.62</v>
+        <v>97.44</v>
       </c>
       <c r="G6">
-        <v>7.69</v>
+        <v>2.56</v>
       </c>
       <c r="H6">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>12.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -4209,19 +4209,19 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>97.44</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4237,7 +4237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4265,366 +4265,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>19330051920356</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>19330051920356</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>19330051920360</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>19330051920361</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>19330051920435</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>19330051920427</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>18330051920097</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>19330051920374</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19330051920382</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>19330051920386</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>19330051920386</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>19330051920419</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>19330051920419</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>19330051920391</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>19330051920393</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>19330051920393</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>19330051920392</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920399</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4663,87 +4303,87 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920356</v>
+        <v>19330051920359</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920386</v>
+        <v>19330051920358</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920419</v>
+        <v>19330051920356</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920393</v>
+        <v>19330051920360</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920360</v>
+        <v>19330051920456</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4751,166 +4391,166 @@
         <v>19330051920361</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920435</v>
+        <v>19330051920362</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920427</v>
+        <v>19330051920426</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920097</v>
+        <v>19330051920366</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920374</v>
+        <v>19330051920365</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920382</v>
+        <v>19330051920368</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920391</v>
+        <v>19330051920367</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920392</v>
+        <v>19330051920435</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920399</v>
+        <v>19330051920371</v>
       </c>
       <c r="B15" t="s">
         <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920359</v>
+        <v>19330051920427</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4918,16 +4558,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920358</v>
+        <v>18330051920097</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4935,16 +4575,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920456</v>
+        <v>19330051920372</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4952,16 +4592,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920362</v>
+        <v>19330051920373</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4969,16 +4609,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920426</v>
+        <v>19330051920375</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4986,16 +4626,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920366</v>
+        <v>19330051920374</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5003,16 +4643,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920365</v>
+        <v>19330051920376</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5020,16 +4660,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920368</v>
+        <v>19330051920377</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5037,16 +4677,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920367</v>
+        <v>19330051920378</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5054,16 +4694,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920371</v>
+        <v>19330051920381</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5071,16 +4711,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920372</v>
+        <v>19330051920382</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5088,13 +4728,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920373</v>
+        <v>19330051920383</v>
       </c>
       <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
         <v>116</v>
-      </c>
-      <c r="C27" t="s">
-        <v>130</v>
       </c>
       <c r="D27" t="s">
         <v>146</v>
@@ -5105,13 +4745,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920375</v>
+        <v>19330051920386</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
         <v>147</v>
@@ -5122,13 +4762,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920376</v>
+        <v>19330051920419</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>148</v>
@@ -5139,13 +4779,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920377</v>
+        <v>19330051920389</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>149</v>
@@ -5156,13 +4796,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920378</v>
+        <v>19330051920436</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
         <v>150</v>
@@ -5173,13 +4813,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920381</v>
+        <v>19330051920391</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
         <v>151</v>
@@ -5190,13 +4830,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920383</v>
+        <v>19330051920393</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
         <v>152</v>
@@ -5207,13 +4847,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920389</v>
+        <v>19330051920392</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>153</v>
@@ -5224,13 +4864,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920436</v>
+        <v>19330051920394</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -5241,13 +4881,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920394</v>
+        <v>19330051920434</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
         <v>155</v>
@@ -5258,13 +4898,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920434</v>
+        <v>19330051920396</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
         <v>156</v>
@@ -5275,13 +4915,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920396</v>
+        <v>19330051920369</v>
       </c>
       <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
         <v>121</v>
-      </c>
-      <c r="C38" t="s">
-        <v>135</v>
       </c>
       <c r="D38" t="s">
         <v>157</v>
@@ -5292,13 +4932,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19330051920369</v>
+        <v>19330051920398</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
         <v>158</v>
@@ -5309,13 +4949,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>19330051920398</v>
+        <v>19330051920399</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
         <v>159</v>
@@ -5331,7 +4971,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5361,7 +5001,7 @@
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5369,19 +5009,19 @@
         <v>19330051920360</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5392,42 +5032,42 @@
         <v>19330051920360</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920367</v>
+        <v>19330051920419</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5435,19 +5075,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920367</v>
+        <v>19330051920419</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
@@ -5458,13 +5098,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920383</v>
+        <v>19330051920393</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
         <v>152</v>
@@ -5473,7 +5113,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -5481,22 +5121,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920383</v>
+        <v>19330051920393</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -5504,88 +5144,88 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920427</v>
+        <v>19330051920399</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920374</v>
+        <v>19330051920399</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920382</v>
+        <v>19330051920367</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920436</v>
+        <v>19330051920427</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -5596,19 +5236,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920369</v>
+        <v>18330051920097</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
@@ -5619,24 +5259,70 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920398</v>
+        <v>19330051920383</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920386</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
         <v>60</v>
       </c>
-      <c r="G13">
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920396</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15">
         <v>5</v>
       </c>
     </row>
